--- a/crm接口文档/客户管理/条件查询用户.xlsx
+++ b/crm接口文档/客户管理/条件查询用户.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>URL</t>
   </si>
@@ -107,19 +107,19 @@
     <t>客户姓名</t>
   </si>
   <si>
-    <t>cusLevelId</t>
+    <t>cusLevel</t>
+  </si>
+  <si>
+    <t>客户级别</t>
+  </si>
+  <si>
+    <t>cusSource</t>
   </si>
   <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>客户级别id</t>
-  </si>
-  <si>
-    <t>cusSourceId</t>
-  </si>
-  <si>
-    <t>客户来源id</t>
+    <t>客户来源</t>
   </si>
   <si>
     <t>cusMobile</t>
@@ -195,18 +195,6 @@
   </si>
   <si>
     <t>data不为空时必须</t>
-  </si>
-  <si>
-    <t>cusLevel</t>
-  </si>
-  <si>
-    <t>客户级别</t>
-  </si>
-  <si>
-    <t>cusSource</t>
-  </si>
-  <si>
-    <t>客户来源</t>
   </si>
 </sst>
 </file>
@@ -214,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -278,6 +266,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -285,6 +295,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -292,15 +317,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,10 +370,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,99 +409,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -455,187 +443,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,11 +689,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,11 +728,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,7 +746,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -758,43 +778,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,10 +794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,133 +806,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1547,10 +1535,10 @@
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>26</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="22"/>
@@ -1564,12 +1552,12 @@
         <v>17</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>28</v>
@@ -1852,7 +1840,7 @@
         <v>52</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
@@ -1860,7 +1848,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="22"/>
@@ -1874,7 +1862,7 @@
         <v>52</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
@@ -1882,7 +1870,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="22"/>

--- a/crm接口文档/客户管理/条件查询用户.xlsx
+++ b/crm接口文档/客户管理/条件查询用户.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>URL</t>
   </si>
@@ -196,6 +196,12 @@
   <si>
     <t>data不为空时必须</t>
   </si>
+  <si>
+    <t>cusSourceStr</t>
+  </si>
+  <si>
+    <t>客户来源-字符串(显示值）</t>
+  </si>
 </sst>
 </file>
 
@@ -203,8 +209,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -266,6 +272,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -275,21 +372,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,73 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,36 +402,19 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -443,187 +449,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,30 +696,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -724,6 +706,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,26 +730,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,8 +752,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,133 +812,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1372,10 +1378,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1867,7 +1873,7 @@
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>28</v>
@@ -1923,8 +1929,30 @@
       </c>
       <c r="J25" s="16"/>
     </row>
+    <row r="26" ht="14.25" spans="1:10">
+      <c r="A26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="50">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:E3"/>
@@ -1973,6 +2001,8 @@
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:H26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>

--- a/crm接口文档/客户管理/条件查询用户.xlsx
+++ b/crm接口文档/客户管理/条件查询用户.xlsx
@@ -21,7 +21,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>/qiuxx/crm/10010/500</t>
+    <t>/crm/10010/500</t>
   </si>
   <si>
     <t>接口描述</t>
@@ -244,10 +244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -308,6 +308,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -316,14 +339,98 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,119 +445,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -485,31 +485,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,151 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,54 +731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -812,8 +764,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,10 +836,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,133 +848,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,8 +1404,8 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" ht="14.25" spans="1:8">
       <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" ht="14.25" spans="1:8">
+    <row r="28" ht="26.25" spans="1:8">
       <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
